--- a/App/django_files/media/deative_users Thu May 16 12:32:02 2024.xlsx
+++ b/App/django_files/media/deative_users Thu May 16 12:32:02 2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,6 +691,3425 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9903574800</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>حسن</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>228000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>228</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1370/08/11</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9171075763</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>علي رضا رستگار</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>488000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>488</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1357/03/16</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9170082979</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>محمدفروزان</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>140</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1359/06/01</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9179589340</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>عبدالستار</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>60</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1346/06/14</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9212717594</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>محبوبه سالاري</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1371/04/09</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9173614068</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>نوح صالحي</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>384000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>384</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1351/06/01</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9350649497</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>حامدصابري</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>200</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1364/04/12</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9361740776</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>رامين</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1363/10/16</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9027281688</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>طاهرخاوري</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>346000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>346</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1360/01/01</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9179394779</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>حسن نگهدار</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>40</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1350/07/01</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9176933326</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ناديه رحيمي</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>104000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>104</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1369/09/14</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9362504618</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>سارا</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1380/04/28</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9058243907</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ساريناريسي</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1382/02/29</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9033081202</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>نويد</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>120</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1381/08/09</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9112513520</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>علي نفيسي</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>35</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1346/06/04</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>کارمند</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9374031388</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>نازنين احساني</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>145000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>145</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1366/09/17</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>کارمند</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9302460381</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>حسن ميرزايي</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>47800</v>
+      </c>
+      <c r="E22" t="n">
+        <v>47</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1350/01/01</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ازاد</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9364730631</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>نادر زماني</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>266000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>266</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1362/02/20</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9177137019</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>عارف جاوداني</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>109000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>109</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1359/01/01</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ازاد</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9361558374</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>مصطفي هاشمي</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>24</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1366/06/30</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ازاد</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9917124497</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>حسنا عبدالهي</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>125</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1360/06/02</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>خانه دار</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9102066981</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>محدثه يمي</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>130600</v>
+      </c>
+      <c r="E27" t="n">
+        <v>130</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1378/06/11</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>دانشجو</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9176822400</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>علي طاهري</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1373/10/02</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ازاد</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9140141454</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>علي يزدي</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>75</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1359/06/28</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>کارمند</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9036261831</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>سيما جوزري</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>33</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1370/12/05</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>خانه دار</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9300099094</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>محمد امين خوشنام</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>48000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>48</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1371/08/10</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ازاد</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9393850607</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>فرامز کبابي</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>24</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1373/06/10</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ازاد</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9176248186</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>مظفر دريايي</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>52</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1370/10/23</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ازاد</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9138352796</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>الهام اميري</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20200</v>
+      </c>
+      <c r="E34" t="n">
+        <v>20</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1368/03/17</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ازاد</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9139473864</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>حسن محمودي</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>50</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1369/03/27</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>کارمند</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9370570365</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>فاطمه چرمچي</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>121000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>121</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1340/08/10</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9023615204</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>هستي زينلي</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E37" t="n">
+        <v>106</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1381/02/04</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>دانش آموز</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9151043548</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>محمد رضا ابيضي</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>263000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>263</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1354/07/28</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>کارمند</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9330643914</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>زهرا اسدي</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1368/07/16</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>خانه دار</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9139976726</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>زهرا محمدي</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>122000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>122</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1364/06/24</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9123322620</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>جواداميدي</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E41" t="n">
+        <v>160</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1361/11/15</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9176013251</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>سيامک عزيزي</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E42" t="n">
+        <v>45</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1368/06/30</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9113163361</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ازيتا سعيدي</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>309000</v>
+      </c>
+      <c r="E43" t="n">
+        <v>309</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9133579644</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>علي</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E44" t="n">
+        <v>73</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1346/02/25</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9173604186</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>مريم محمد</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>96000</v>
+      </c>
+      <c r="E45" t="n">
+        <v>96</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1356/10/20</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9122685200</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>پيمان کوهي</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>195000</v>
+      </c>
+      <c r="E46" t="n">
+        <v>195</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1361/08/22</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9173691372</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>سعيدنجاتي</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>20</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1354/01/20</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>9113522159</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>علي</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E48" t="n">
+        <v>30</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1341/01/01</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9380862512</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>شيرواني</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>87000</v>
+      </c>
+      <c r="E49" t="n">
+        <v>87</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1361/08/08</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9179698441</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>محبوبه</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E50" t="n">
+        <v>80</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1364/05/18</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>پرستار</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>9392045093</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>سيما پابرجا</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E51" t="n">
+        <v>350</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1369/02/10</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9179033628</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>حميد زارعي</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E52" t="n">
+        <v>58</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1373/01/21</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>9132167784</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>اکرم بماني</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E53" t="n">
+        <v>250</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1359/09/08</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>9191491908</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>حانيه ميرحسيني</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E54" t="n">
+        <v>17</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1372/12/21</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>9118152422</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>زهره ايمان پرست</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E55" t="n">
+        <v>20</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1331/06/04</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>9137054252</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>نجمه عليمحمدي</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>28650</v>
+      </c>
+      <c r="E56" t="n">
+        <v>28</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1360/08/13</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>9132566948</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>رضا رجبي نيا</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20200</v>
+      </c>
+      <c r="E57" t="n">
+        <v>20</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1356/04/30</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>9331345658</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>مريم خروتي</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>120</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1357/06/15</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9055899690</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>زماني</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E59" t="n">
+        <v>100</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1373/12/28</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9390820804</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>پرستو مقدم</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>642000</v>
+      </c>
+      <c r="E60" t="n">
+        <v>642</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1370/04/16</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9173898406</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ندا عزيزي</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>84000</v>
+      </c>
+      <c r="E61" t="n">
+        <v>84</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1370/01/02</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>9334823046</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>مجيد اميدي</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>138000</v>
+      </c>
+      <c r="E62" t="n">
+        <v>138</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1368/01/18</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>9179031536</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>مطهره اهار</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>413000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>413</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1365/05/01</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9350568081</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>خادمي</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>270000</v>
+      </c>
+      <c r="E64" t="n">
+        <v>270</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1368/10/08</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9350578727</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>اميد توکلي</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E65" t="n">
+        <v>24</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1373/01/09</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>9131485162</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>هادي دلفاري</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>168000</v>
+      </c>
+      <c r="E66" t="n">
+        <v>168</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1363/05/10</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9199345706</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>بهزاد ارشدي</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E67" t="n">
+        <v>70</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1368/01/02</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>9167878067</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>سوسن بخشي</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>260000</v>
+      </c>
+      <c r="E68" t="n">
+        <v>260</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1355/06/30</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9198676970</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>حامد ايراني</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>66000</v>
+      </c>
+      <c r="E69" t="n">
+        <v>66</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1370/06/26</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9137581295</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>محمدرضا مظفري</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1377/01/18</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>9176250067</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>نسيم احمدي</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>560000</v>
+      </c>
+      <c r="E71" t="n">
+        <v>560</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1360/03/08</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>9173630772</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ساميه سرودي</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>265000</v>
+      </c>
+      <c r="E72" t="n">
+        <v>265</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1359/05/05</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>ازاد</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>9330363245</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>سيده معصومه وحداني</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>210000</v>
+      </c>
+      <c r="E73" t="n">
+        <v>210</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1367/10/01</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>9131799531</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>سيد رضا</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E74" t="n">
+        <v>36</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1364/01/01</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
